--- a/public/files/sample_purchases.xlsx
+++ b/public/files/sample_purchases.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp4\htdocs\wakasa\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp4\htdocs\wakasa5\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B75329-EA55-4800-ACB1-C132359E2F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772D15FF-C3F6-48B4-9C9E-38DC003B9E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,76 +34,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>invoice_number</t>
-  </si>
-  <si>
-    <t>supplier_code</t>
-  </si>
-  <si>
-    <t>warehouse_code</t>
-  </si>
-  <si>
-    <t>order_date</t>
-  </si>
-  <si>
-    <t>order_notes</t>
-  </si>
-  <si>
-    <t>item_code</t>
-  </si>
-  <si>
-    <t>item_quantity</t>
-  </si>
-  <si>
-    <t>PUR-240211111</t>
-  </si>
-  <si>
-    <t>2024-02-27 13:00:00</t>
-  </si>
-  <si>
-    <t>Test Import Purchase</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>JKTSBH</t>
   </si>
   <si>
-    <t>B15</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
     <t>01050-41950</t>
   </si>
   <si>
-    <t>17720-6290</t>
-  </si>
-  <si>
-    <t>8-97089-591-0</t>
-  </si>
-  <si>
     <t>01050-50830</t>
   </si>
   <si>
-    <t>shelf</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>BGS</t>
-  </si>
-  <si>
-    <t>purchase_price</t>
+    <t>ReceiveNo</t>
+  </si>
+  <si>
+    <t>VendorId</t>
+  </si>
+  <si>
+    <t>ItemId</t>
+  </si>
+  <si>
+    <t>ReceiveQty</t>
+  </si>
+  <si>
+    <t>DocumentDate</t>
+  </si>
+  <si>
+    <t>TransactionDate</t>
+  </si>
+  <si>
+    <t>PurchaseOrderNo</t>
+  </si>
+  <si>
+    <t>PO2503-0096</t>
+  </si>
+  <si>
+    <t>01050-508301</t>
+  </si>
+  <si>
+    <t>PO2503-0097</t>
+  </si>
+  <si>
+    <t>BB2503-0103</t>
+  </si>
+  <si>
+    <t>BB2503-0104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -124,22 +106,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -194,22 +168,25 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="22"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -217,15 +194,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{3689CDAF-9802-4013-8DB4-D07CC8AAF588}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -432,94 +413,100 @@
     <col min="6" max="7" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="6">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7">
+        <v>45726.44398329861</v>
+      </c>
+      <c r="F2" s="7">
+        <v>45726.44398329861</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D3" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7">
+        <v>45726.44398329861</v>
+      </c>
+      <c r="F3" s="7">
+        <v>45726.44398329861</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45726.44398329861</v>
+      </c>
+      <c r="F4" s="7">
+        <v>45726.44398329861</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="4">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4">
-        <v>50</v>
-      </c>
-      <c r="J3">
-        <v>200000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>